--- a/Othoba TestCase/Othoba Test Case Report.xlsx
+++ b/Othoba TestCase/Othoba Test Case Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Othoba_TC_Reg" sheetId="1" r:id="rId1"/>
@@ -1812,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -2358,7 +2358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="217" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>89</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="217" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="201.5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -3072,11 +3072,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3884,13 +3884,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:H4"/>
@@ -3900,6 +3893,13 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
